--- a/2025-03-03_4o-mini_feedback_sheets/diff_gen/CREST syndrome with Type 2 Achalasia_vs_Esophageal squamous cell carcinoma.xlsx
+++ b/2025-03-03_4o-mini_feedback_sheets/diff_gen/CREST syndrome with Type 2 Achalasia_vs_Esophageal squamous cell carcinoma.xlsx
@@ -462,22 +462,22 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Presence of skin changes such as sclerodactyly or telangiectasia</t>
+          <t>Progressive dysphagia for solids and liquids</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>These skin manifestations are characteristic of CREST syndrome and are not typically seen in esophageal squamous cell carcinoma.</t>
+          <t>Type 2 Achalasia in CREST syndrome often presents with dysphagia for both solids and liquids due to esophageal motility disorder.</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Unintentional weight loss</t>
+          <t>Rapid weight loss</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Weight loss is a common symptom in esophageal squamous cell carcinoma due to difficulty swallowing and decreased appetite.</t>
+          <t>Rapid weight loss is more indicative of esophageal squamous cell carcinoma due to malignancy-related cachexia.</t>
         </is>
       </c>
     </row>
@@ -489,83 +489,83 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Raynaud's phenomenon is commonly associated with CREST syndrome and is not a feature of esophageal squamous cell carcinoma.</t>
+          <t>Raynaud's phenomenon is a common feature of CREST syndrome and not typically associated with esophageal cancer.</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Hematemesis or melena</t>
+          <t>Progressive dysphagia starting with solids</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>The presence of blood in vomit or stool is more indicative of esophageal squamous cell carcinoma than CREST syndrome.</t>
+          <t>Dysphagia starting with solids and progressing to liquids is typical of esophageal cancer due to tumor growth.</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Dysphagia that is progressive but associated with reflux symptoms</t>
+          <t>Skin changes such as sclerodactyly</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>In CREST syndrome with Type 2 Achalasia, dysphagia often presents with reflux, which is less common in esophageal squamous cell carcinoma.</t>
+          <t>Sclerodactyly is a specific feature of CREST syndrome and not seen in esophageal cancer.</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>New onset of severe dysphagia without prior history</t>
+          <t>Odynophagia (painful swallowing)</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Acute onset of severe dysphagia is more suggestive of esophageal squamous cell carcinoma than the gradual progression seen in CREST syndrome.</t>
+          <t>Odynophagia is more commonly associated with esophageal cancer due to ulceration or tumor invasion.</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>History of gastrointestinal motility disorders</t>
+          <t>Telangiectasia on the skin</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Gastrointestinal motility issues are prevalent in CREST syndrome due to smooth muscle involvement, unlike in esophageal squamous cell carcinoma.</t>
+          <t>Telangiectasia is a hallmark of CREST syndrome and not associated with esophageal cancer.</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Persistent cough or hoarseness</t>
+          <t>History of smoking and alcohol use</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>These respiratory symptoms can occur with esophageal squamous cell carcinoma due to local invasion or compression, which is not typical in CREST syndrome.</t>
+          <t>Smoking and alcohol use are significant risk factors for esophageal squamous cell carcinoma.</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Long-standing history of esophageal symptoms</t>
+          <t>Long-standing history of gastroesophageal reflux disease (GERD)</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Patients with CREST syndrome often have a chronic history of esophageal symptoms due to achalasia, while esophageal squamous cell carcinoma typically presents acutely.</t>
+          <t>GERD is often associated with esophageal motility disorders seen in CREST syndrome.</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>History of tobacco or alcohol use</t>
+          <t>Hoarseness</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>A history of tobacco or alcohol use is a significant risk factor for esophageal squamous cell carcinoma, whereas it is not a risk factor for CREST syndrome.</t>
+          <t>Hoarseness can occur in esophageal cancer due to recurrent laryngeal nerve involvement.</t>
         </is>
       </c>
     </row>
@@ -613,22 +613,22 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>History of sclerodactyly</t>
+          <t>History of scleroderma</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Sclerodactyly is a hallmark of CREST syndrome, which is not associated with esophageal squamous cell carcinoma.</t>
+          <t>Scleroderma is a key component of CREST syndrome, which is associated with Type 2 Achalasia.</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>History of dysphagia (difficulty swallowing)</t>
+          <t>History of heavy smoking</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Dysphagia is a common symptom of esophageal squamous cell carcinoma, while it is less specific for CREST syndrome.</t>
+          <t>Smoking is a significant risk factor for esophageal squamous cell carcinoma.</t>
         </is>
       </c>
     </row>
@@ -640,83 +640,83 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Raynaud's phenomenon is commonly seen in CREST syndrome and is not a feature of esophageal squamous cell carcinoma.</t>
+          <t>Raynaud's phenomenon is commonly associated with CREST syndrome.</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>History of weight loss</t>
+          <t>History of heavy alcohol use</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Unintentional weight loss is often associated with esophageal squamous cell carcinoma and is not a typical feature of CREST syndrome.</t>
+          <t>Alcohol use is a known risk factor for esophageal squamous cell carcinoma.</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>History of pulmonary hypertension</t>
+          <t>History of telangiectasia</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Pulmonary hypertension is associated with CREST syndrome and is not typically linked to esophageal squamous cell carcinoma.</t>
+          <t>Telangiectasia is a characteristic feature of CREST syndrome.</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>History of chronic cough</t>
+          <t>History of Barrett's esophagus</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Chronic cough can be a symptom of esophageal squamous cell carcinoma due to obstruction or invasion, unlike CREST syndrome.</t>
+          <t>Barrett's esophagus is a precursor to esophageal carcinoma, although more commonly adenocarcinoma.</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>History of gastrointestinal motility disorders</t>
+          <t>History of calcinosis</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Gastrointestinal motility disorders, including achalasia, are common in CREST syndrome but not in esophageal squamous cell carcinoma.</t>
+          <t>Calcinosis is part of the CREST syndrome acronym.</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>History of smoking</t>
+          <t>History of prior head and neck cancer</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Smoking is a significant risk factor for esophageal squamous cell carcinoma but not for CREST syndrome.</t>
+          <t>Prior head and neck cancer increases the risk of esophageal squamous cell carcinoma.</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>History of skin changes (calcinosis cutis)</t>
+          <t>Use of calcium channel blockers</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Calcinosis cutis is a specific skin manifestation of CREST syndrome, absent in esophageal squamous cell carcinoma.</t>
+          <t>Calcium channel blockers are often used to manage Raynaud's phenomenon in CREST syndrome.</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>History of previous esophageal cancer</t>
+          <t>History of achalasia treatment</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>A past medical history of esophageal cancer increases the likelihood of current esophageal squamous cell carcinoma.</t>
+          <t>While achalasia is associated with CREST, its treatment history can be relevant in the context of carcinoma risk.</t>
         </is>
       </c>
     </row>
@@ -769,105 +769,105 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>CREST syndrome is associated with autoimmune conditions, which may run in families.</t>
+          <t>Autoimmune diseases, including CREST syndrome, often have a genetic component and may run in families.</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>History of tobacco use</t>
+          <t>Significant history of tobacco use</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Tobacco use is a significant risk factor for esophageal squamous cell carcinoma.</t>
+          <t>Tobacco use is a major risk factor for esophageal squamous cell carcinoma.</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>History of Raynaud's phenomenon</t>
+          <t>History of Raynaud's phenomenon in family</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Raynaud's phenomenon is a common feature of CREST syndrome, indicating a higher likelihood of this diagnosis.</t>
+          <t>Raynaud's phenomenon is commonly associated with CREST syndrome and may indicate a familial predisposition.</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Family history of esophageal cancer</t>
+          <t>Significant history of alcohol use</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>A family history of esophageal cancer increases the likelihood of developing esophageal squamous cell carcinoma.</t>
+          <t>Alcohol use is a significant risk factor for esophageal squamous cell carcinoma.</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Occupational exposure to silica or other environmental toxins</t>
+          <t>Family history of scleroderma</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>While this can be a risk factor for various conditions, it is less specific for esophageal cancer compared to autoimmune conditions.</t>
+          <t>Scleroderma, part of the CREST syndrome spectrum, can have a genetic predisposition.</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>History of heavy alcohol consumption</t>
+          <t>Family history of esophageal cancer</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Heavy alcohol use is a known risk factor for esophageal squamous cell carcinoma.</t>
+          <t>A family history of esophageal cancer increases the risk of esophageal squamous cell carcinoma.</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>History of gastroesophageal reflux disease (GERD)</t>
+          <t>No significant tobacco use</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>GERD is more commonly associated with achalasia and CREST syndrome than with esophageal squamous cell carcinoma.</t>
+          <t>Absence of tobacco use is less common in esophageal squamous cell carcinoma, which is strongly associated with smoking.</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>History of chronic irritation or injury to the esophagus</t>
+          <t>Occupational exposure to carcinogens</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Chronic irritation can lead to changes that predispose to esophageal squamous cell carcinoma.</t>
+          <t>Certain occupational exposures can increase the risk of esophageal squamous cell carcinoma.</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Lack of tobacco use</t>
+          <t>No significant alcohol use</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Non-smokers are less likely to develop esophageal squamous cell carcinoma, which is more common in smokers.</t>
+          <t>Absence of alcohol use is less common in esophageal squamous cell carcinoma, which is associated with alcohol consumption.</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Age over 50</t>
+          <t>Low socioeconomic status</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Esophageal squamous cell carcinoma is more common in older adults, particularly those over 50.</t>
+          <t>Low socioeconomic status is associated with higher risk factors for esophageal squamous cell carcinoma, such as smoking and alcohol use.</t>
         </is>
       </c>
     </row>
@@ -915,110 +915,110 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Skin changes (sclerodactyly)</t>
+          <t>Sclerodactyly</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Sclerodactyly is a hallmark of CREST syndrome and is not typically seen in esophageal squamous cell carcinoma.</t>
+          <t>Thickening and tightening of the skin on the fingers is characteristic of CREST syndrome.</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Weight loss</t>
+          <t>Lymphadenopathy</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Significant weight loss is more commonly associated with esophageal squamous cell carcinoma due to dysphagia and decreased intake.</t>
+          <t>Enlarged lymph nodes are more commonly associated with esophageal squamous cell carcinoma.</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Raynaud's phenomenon</t>
+          <t>Telangiectasia</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Raynaud's phenomenon is commonly associated with CREST syndrome and is not a feature of esophageal squamous cell carcinoma.</t>
+          <t>Visible small blood vessels on the skin are common in CREST syndrome.</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Lymphadenopathy</t>
+          <t>Cachexia</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Lymphadenopathy may be present in esophageal squamous cell carcinoma due to metastasis, which is not a feature of CREST syndrome.</t>
+          <t>Severe weight loss and muscle wasting are more indicative of esophageal squamous cell carcinoma.</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Dysphagia (difficulty swallowing) with regurgitation</t>
+          <t>Calcinosis</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Dysphagia in CREST syndrome is often due to esophageal motility issues, while in carcinoma it is usually progressive and associated with weight loss.</t>
+          <t>Calcium deposits in the skin are indicative of CREST syndrome.</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Palpable mass in the neck or chest</t>
+          <t>Dysphagia</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>A palpable mass may indicate a tumor in esophageal squamous cell carcinoma, while CREST syndrome does not present with such masses.</t>
+          <t>Difficulty swallowing is more pronounced and progressive in esophageal squamous cell carcinoma.</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Telangiectasia</t>
+          <t>Raynaud's phenomenon</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Telangiectasia is a common finding in CREST syndrome and is not present in esophageal squamous cell carcinoma.</t>
+          <t>Episodes of reduced blood flow to the fingers are typical in CREST syndrome.</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Anemia</t>
+          <t>Hoarseness</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Anemia can occur in esophageal squamous cell carcinoma due to chronic blood loss or nutritional deficiencies, which is less common in CREST syndrome.</t>
+          <t>Voice changes due to recurrent laryngeal nerve involvement are more common in esophageal squamous cell carcinoma.</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Esophageal dilation on physical exam</t>
+          <t>Digital ulcers</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Esophageal dilation is indicative of Type 2 Achalasia, which is associated with CREST syndrome, whereas carcinoma typically presents with strictures.</t>
+          <t>Ulcers on the fingertips are more common in CREST syndrome.</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Hoarseness</t>
+          <t>Tracheal deviation</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Hoarseness may occur in esophageal squamous cell carcinoma due to invasion of surrounding structures, which is not a feature of CREST syndrome.</t>
+          <t>Deviation of the trachea can occur due to tumor mass effect in esophageal squamous cell carcinoma.</t>
         </is>
       </c>
     </row>
@@ -1066,12 +1066,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Barium swallow study showing dilated esophagus with decreased peristalsis</t>
+          <t>Manometry showing incomplete lower esophageal sphincter (LES) relaxation with esophageal body aperistalsis</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>This finding is characteristic of Type 2 Achalasia, which is often seen in CREST syndrome.</t>
+          <t>This is characteristic of Type 2 Achalasia, which is associated with CREST syndrome.</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -1081,95 +1081,95 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>A biopsy confirming squamous cell carcinoma is definitive for esophageal cancer.</t>
+          <t>Biopsy confirmation of squamous cell carcinoma is definitive for esophageal cancer.</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Esophageal manometry showing elevated lower esophageal sphincter (LES) pressure</t>
+          <t>Barium swallow showing bird-beak appearance</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Elevated LES pressure is a hallmark of achalasia, supporting the diagnosis of CREST syndrome.</t>
+          <t>The bird-beak appearance is typical of achalasia, particularly in CREST syndrome.</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Imaging showing irregular mass in the esophagus</t>
+          <t>CT scan showing esophageal mass with possible lymph node involvement</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>An irregular mass is highly suggestive of malignancy, favoring esophageal squamous cell carcinoma.</t>
+          <t>A mass with lymph node involvement is indicative of esophageal carcinoma.</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Presence of anti-centromere antibodies</t>
+          <t>High-resolution manometry (HRM) pattern consistent with Type 2 Achalasia</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>These antibodies are commonly associated with CREST syndrome, distinguishing it from esophageal cancer.</t>
+          <t>HRM can specifically identify the pattern of esophageal motility disorders like Type 2 Achalasia.</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Elevated tumor markers such as SCC antigen</t>
+          <t>PET scan showing hypermetabolic activity in the esophagus</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Elevated levels of squamous cell carcinoma antigen are associated with esophageal cancer.</t>
+          <t>Increased metabolic activity on PET is suggestive of malignancy.</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Chest X-ray showing dilated esophagus</t>
+          <t>Esophageal dilation without mucosal irregularity on endoscopy</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>A dilated esophagus on imaging is indicative of achalasia, which is more common in CREST syndrome.</t>
+          <t>Dilation without mucosal changes is more indicative of achalasia than carcinoma.</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>CT scan showing lymphadenopathy</t>
+          <t>Barium swallow showing irregular esophageal contour</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Lymphadenopathy is often present in cases of esophageal cancer, indicating metastasis.</t>
+          <t>Irregular contour suggests a mass or tumor, typical of carcinoma.</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Endoscopy revealing esophageal dilation without mass lesions</t>
+          <t>Absence of esophageal mass on imaging</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Dilation without visible tumors supports achalasia rather than esophageal carcinoma.</t>
+          <t>The absence of a mass is more consistent with achalasia than with carcinoma.</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>PET scan showing hypermetabolic lesions in the esophagus</t>
+          <t>Endoscopic ultrasound (EUS) showing invasion beyond the esophageal wall</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Hypermetabolic activity on PET scan is indicative of malignancy, supporting esophageal squamous cell carcinoma.</t>
+          <t>Invasion beyond the wall is characteristic of advanced esophageal carcinoma.</t>
         </is>
       </c>
     </row>
